--- a/natmiOut/OldD7/LR-pairs_lrc2p/Dhh-Cdon.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Dhh-Cdon.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.382941891641777</v>
+        <v>2.264243666666667</v>
       </c>
       <c r="H2">
-        <v>0.382941891641777</v>
+        <v>6.792731</v>
       </c>
       <c r="I2">
-        <v>0.112896984682728</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="J2">
-        <v>0.112896984682728</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.7840905815165</v>
+        <v>1.922246666666667</v>
       </c>
       <c r="N2">
-        <v>1.7840905815165</v>
+        <v>5.76674</v>
       </c>
       <c r="O2">
-        <v>0.04073940771108647</v>
+        <v>0.04282684507083529</v>
       </c>
       <c r="P2">
-        <v>0.04073940771108647</v>
+        <v>0.04282684507083529</v>
       </c>
       <c r="Q2">
-        <v>0.6832030221462064</v>
+        <v>4.352434840771112</v>
       </c>
       <c r="R2">
-        <v>0.6832030221462064</v>
+        <v>39.17191356694</v>
       </c>
       <c r="S2">
-        <v>0.004599356288341942</v>
+        <v>0.01762314770364597</v>
       </c>
       <c r="T2">
-        <v>0.004599356288341942</v>
+        <v>0.01762314770364597</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.382941891641777</v>
+        <v>2.264243666666667</v>
       </c>
       <c r="H3">
-        <v>0.382941891641777</v>
+        <v>6.792731</v>
       </c>
       <c r="I3">
-        <v>0.112896984682728</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="J3">
-        <v>0.112896984682728</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>21.5818257052274</v>
+        <v>21.84955866666667</v>
       </c>
       <c r="N3">
-        <v>21.5818257052274</v>
+        <v>65.548676</v>
       </c>
       <c r="O3">
-        <v>0.4928173522487338</v>
+        <v>0.4867989525538483</v>
       </c>
       <c r="P3">
-        <v>0.4928173522487338</v>
+        <v>0.4867989525538483</v>
       </c>
       <c r="Q3">
-        <v>8.264585160642907</v>
+        <v>49.47272483046178</v>
       </c>
       <c r="R3">
-        <v>8.264585160642907</v>
+        <v>445.254523474156</v>
       </c>
       <c r="S3">
-        <v>0.05563759306820788</v>
+        <v>0.2003166431859999</v>
       </c>
       <c r="T3">
-        <v>0.05563759306820788</v>
+        <v>0.2003166431859999</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.382941891641777</v>
+        <v>2.264243666666667</v>
       </c>
       <c r="H4">
-        <v>0.382941891641777</v>
+        <v>6.792731</v>
       </c>
       <c r="I4">
-        <v>0.112896984682728</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="J4">
-        <v>0.112896984682728</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0980493489764014</v>
+        <v>0.102188</v>
       </c>
       <c r="N4">
-        <v>0.0980493489764014</v>
+        <v>0.306564</v>
       </c>
       <c r="O4">
-        <v>0.002238940357143112</v>
+        <v>0.002276705544605019</v>
       </c>
       <c r="P4">
-        <v>0.002238940357143112</v>
+        <v>0.002276705544605019</v>
       </c>
       <c r="Q4">
-        <v>0.03754720317126788</v>
+        <v>0.2313785318093333</v>
       </c>
       <c r="R4">
-        <v>0.03754720317126788</v>
+        <v>2.082406786284</v>
       </c>
       <c r="S4">
-        <v>0.0002527696152059276</v>
+        <v>0.0009368590664084943</v>
       </c>
       <c r="T4">
-        <v>0.0002527696152059276</v>
+        <v>0.0009368590664084943</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.382941891641777</v>
+        <v>2.264243666666667</v>
       </c>
       <c r="H5">
-        <v>0.382941891641777</v>
+        <v>6.792731</v>
       </c>
       <c r="I5">
-        <v>0.112896984682728</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="J5">
-        <v>0.112896984682728</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.3287815286179</v>
+        <v>21.01015966666667</v>
       </c>
       <c r="N5">
-        <v>20.3287815286179</v>
+        <v>63.030479</v>
       </c>
       <c r="O5">
-        <v>0.4642042996830366</v>
+        <v>0.4680974968307114</v>
       </c>
       <c r="P5">
-        <v>0.4642042996830366</v>
+        <v>0.4680974968307114</v>
       </c>
       <c r="Q5">
-        <v>7.784742053341353</v>
+        <v>47.57212096090544</v>
       </c>
       <c r="R5">
-        <v>7.784742053341353</v>
+        <v>428.149088648149</v>
       </c>
       <c r="S5">
-        <v>0.05240726571097227</v>
+        <v>0.1926210374056321</v>
       </c>
       <c r="T5">
-        <v>0.05240726571097227</v>
+        <v>0.1926210374056321</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.01421531966751</v>
+        <v>2.089228666666667</v>
       </c>
       <c r="H6">
-        <v>2.01421531966751</v>
+        <v>6.267686</v>
       </c>
       <c r="I6">
-        <v>0.5938207363976236</v>
+        <v>0.3796909216792509</v>
       </c>
       <c r="J6">
-        <v>0.5938207363976236</v>
+        <v>0.3796909216792509</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.7840905815165</v>
+        <v>1.922246666666667</v>
       </c>
       <c r="N6">
-        <v>1.7840905815165</v>
+        <v>5.76674</v>
       </c>
       <c r="O6">
-        <v>0.04073940771108647</v>
+        <v>0.04282684507083529</v>
       </c>
       <c r="P6">
-        <v>0.04073940771108647</v>
+        <v>0.04282684507083529</v>
       </c>
       <c r="Q6">
-        <v>3.593542580965051</v>
+        <v>4.016012840404445</v>
       </c>
       <c r="R6">
-        <v>3.593542580965051</v>
+        <v>36.14411556364001</v>
       </c>
       <c r="S6">
-        <v>0.02419190508740039</v>
+        <v>0.01626096427755994</v>
       </c>
       <c r="T6">
-        <v>0.02419190508740039</v>
+        <v>0.01626096427755994</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.01421531966751</v>
+        <v>2.089228666666667</v>
       </c>
       <c r="H7">
-        <v>2.01421531966751</v>
+        <v>6.267686</v>
       </c>
       <c r="I7">
-        <v>0.5938207363976236</v>
+        <v>0.3796909216792509</v>
       </c>
       <c r="J7">
-        <v>0.5938207363976236</v>
+        <v>0.3796909216792509</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.5818257052274</v>
+        <v>21.84955866666667</v>
       </c>
       <c r="N7">
-        <v>21.5818257052274</v>
+        <v>65.548676</v>
       </c>
       <c r="O7">
-        <v>0.4928173522487338</v>
+        <v>0.4867989525538483</v>
       </c>
       <c r="P7">
-        <v>0.4928173522487338</v>
+        <v>0.4867989525538483</v>
       </c>
       <c r="Q7">
-        <v>43.47044396186308</v>
+        <v>45.64872432041511</v>
       </c>
       <c r="R7">
-        <v>43.47044396186308</v>
+        <v>410.838518883736</v>
       </c>
       <c r="S7">
-        <v>0.2926451630218702</v>
+        <v>0.1848331429676646</v>
       </c>
       <c r="T7">
-        <v>0.2926451630218702</v>
+        <v>0.1848331429676646</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.01421531966751</v>
+        <v>2.089228666666667</v>
       </c>
       <c r="H8">
-        <v>2.01421531966751</v>
+        <v>6.267686</v>
       </c>
       <c r="I8">
-        <v>0.5938207363976236</v>
+        <v>0.3796909216792509</v>
       </c>
       <c r="J8">
-        <v>0.5938207363976236</v>
+        <v>0.3796909216792509</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0980493489764014</v>
+        <v>0.102188</v>
       </c>
       <c r="N8">
-        <v>0.0980493489764014</v>
+        <v>0.306564</v>
       </c>
       <c r="O8">
-        <v>0.002238940357143112</v>
+        <v>0.002276705544605019</v>
       </c>
       <c r="P8">
-        <v>0.002238940357143112</v>
+        <v>0.002276705544605019</v>
       </c>
       <c r="Q8">
-        <v>0.1974925007916936</v>
+        <v>0.2134940989893333</v>
       </c>
       <c r="R8">
-        <v>0.1974925007916936</v>
+        <v>1.921446890904</v>
       </c>
       <c r="S8">
-        <v>0.001329529211629081</v>
+        <v>0.0008644444266233405</v>
       </c>
       <c r="T8">
-        <v>0.001329529211629081</v>
+        <v>0.0008644444266233405</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.01421531966751</v>
+        <v>2.089228666666667</v>
       </c>
       <c r="H9">
-        <v>2.01421531966751</v>
+        <v>6.267686</v>
       </c>
       <c r="I9">
-        <v>0.5938207363976236</v>
+        <v>0.3796909216792509</v>
       </c>
       <c r="J9">
-        <v>0.5938207363976236</v>
+        <v>0.3796909216792509</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.3287815286179</v>
+        <v>21.01015966666667</v>
       </c>
       <c r="N9">
-        <v>20.3287815286179</v>
+        <v>63.030479</v>
       </c>
       <c r="O9">
-        <v>0.4642042996830366</v>
+        <v>0.4680974968307114</v>
       </c>
       <c r="P9">
-        <v>0.4642042996830366</v>
+        <v>0.4680974968307114</v>
       </c>
       <c r="Q9">
-        <v>40.94654318511607</v>
+        <v>43.89502786684378</v>
       </c>
       <c r="R9">
-        <v>40.94654318511607</v>
+        <v>395.055250801594</v>
       </c>
       <c r="S9">
-        <v>0.2756541390767239</v>
+        <v>0.1777323700074031</v>
       </c>
       <c r="T9">
-        <v>0.2756541390767239</v>
+        <v>0.1777323700074031</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.175545146164755</v>
+        <v>0.1905406666666667</v>
       </c>
       <c r="H10">
-        <v>0.175545146164755</v>
+        <v>0.571622</v>
       </c>
       <c r="I10">
-        <v>0.05175332892602105</v>
+        <v>0.03462835949856721</v>
       </c>
       <c r="J10">
-        <v>0.05175332892602105</v>
+        <v>0.03462835949856721</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.7840905815165</v>
+        <v>1.922246666666667</v>
       </c>
       <c r="N10">
-        <v>1.7840905815165</v>
+        <v>5.76674</v>
       </c>
       <c r="O10">
-        <v>0.04073940771108647</v>
+        <v>0.04282684507083529</v>
       </c>
       <c r="P10">
-        <v>0.04073940771108647</v>
+        <v>0.04282684507083529</v>
       </c>
       <c r="Q10">
-        <v>0.3131884419034767</v>
+        <v>0.3662661613644445</v>
       </c>
       <c r="R10">
-        <v>0.3131884419034767</v>
+        <v>3.29639545228</v>
       </c>
       <c r="S10">
-        <v>0.002108399967523137</v>
+        <v>0.001483023387302326</v>
       </c>
       <c r="T10">
-        <v>0.002108399967523137</v>
+        <v>0.001483023387302326</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.175545146164755</v>
+        <v>0.1905406666666667</v>
       </c>
       <c r="H11">
-        <v>0.175545146164755</v>
+        <v>0.571622</v>
       </c>
       <c r="I11">
-        <v>0.05175332892602105</v>
+        <v>0.03462835949856721</v>
       </c>
       <c r="J11">
-        <v>0.05175332892602105</v>
+        <v>0.03462835949856721</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.5818257052274</v>
+        <v>21.84955866666667</v>
       </c>
       <c r="N11">
-        <v>21.5818257052274</v>
+        <v>65.548676</v>
       </c>
       <c r="O11">
-        <v>0.4928173522487338</v>
+        <v>0.4867989525538483</v>
       </c>
       <c r="P11">
-        <v>0.4928173522487338</v>
+        <v>0.4867989525538483</v>
       </c>
       <c r="Q11">
-        <v>3.78858474792641</v>
+        <v>4.163229474719111</v>
       </c>
       <c r="R11">
-        <v>3.78858474792641</v>
+        <v>37.469065272472</v>
       </c>
       <c r="S11">
-        <v>0.0255049385313795</v>
+        <v>0.01685704913256062</v>
       </c>
       <c r="T11">
-        <v>0.0255049385313795</v>
+        <v>0.01685704913256062</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.175545146164755</v>
+        <v>0.1905406666666667</v>
       </c>
       <c r="H12">
-        <v>0.175545146164755</v>
+        <v>0.571622</v>
       </c>
       <c r="I12">
-        <v>0.05175332892602105</v>
+        <v>0.03462835949856721</v>
       </c>
       <c r="J12">
-        <v>0.05175332892602105</v>
+        <v>0.03462835949856721</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0980493489764014</v>
+        <v>0.102188</v>
       </c>
       <c r="N12">
-        <v>0.0980493489764014</v>
+        <v>0.306564</v>
       </c>
       <c r="O12">
-        <v>0.002238940357143112</v>
+        <v>0.002276705544605019</v>
       </c>
       <c r="P12">
-        <v>0.002238940357143112</v>
+        <v>0.002276705544605019</v>
       </c>
       <c r="Q12">
-        <v>0.01721208729742145</v>
+        <v>0.01947096964533333</v>
       </c>
       <c r="R12">
-        <v>0.01721208729742145</v>
+        <v>0.175238726808</v>
       </c>
       <c r="S12">
-        <v>0.0001158726167489705</v>
+        <v>7.883857807096385E-05</v>
       </c>
       <c r="T12">
-        <v>0.0001158726167489705</v>
+        <v>7.883857807096385E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.175545146164755</v>
+        <v>0.1905406666666667</v>
       </c>
       <c r="H13">
-        <v>0.175545146164755</v>
+        <v>0.571622</v>
       </c>
       <c r="I13">
-        <v>0.05175332892602105</v>
+        <v>0.03462835949856721</v>
       </c>
       <c r="J13">
-        <v>0.05175332892602105</v>
+        <v>0.03462835949856721</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.3287815286179</v>
+        <v>21.01015966666667</v>
       </c>
       <c r="N13">
-        <v>20.3287815286179</v>
+        <v>63.030479</v>
       </c>
       <c r="O13">
-        <v>0.4642042996830366</v>
+        <v>0.4680974968307114</v>
       </c>
       <c r="P13">
-        <v>0.4642042996830366</v>
+        <v>0.4680974968307114</v>
       </c>
       <c r="Q13">
-        <v>3.568618924792601</v>
+        <v>4.003289829659778</v>
       </c>
       <c r="R13">
-        <v>3.568618924792601</v>
+        <v>36.029608466938</v>
       </c>
       <c r="S13">
-        <v>0.02402411781036944</v>
+        <v>0.0162094484006333</v>
       </c>
       <c r="T13">
-        <v>0.02402411781036944</v>
+        <v>0.0162094484006333</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.819256185244795</v>
+        <v>0.9584326666666668</v>
       </c>
       <c r="H14">
-        <v>0.819256185244795</v>
+        <v>2.875298</v>
       </c>
       <c r="I14">
-        <v>0.2415289499936274</v>
+        <v>0.1741830314604954</v>
       </c>
       <c r="J14">
-        <v>0.2415289499936274</v>
+        <v>0.1741830314604954</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.7840905815165</v>
+        <v>1.922246666666667</v>
       </c>
       <c r="N14">
-        <v>1.7840905815165</v>
+        <v>5.76674</v>
       </c>
       <c r="O14">
-        <v>0.04073940771108647</v>
+        <v>0.04282684507083529</v>
       </c>
       <c r="P14">
-        <v>0.04073940771108647</v>
+        <v>0.04282684507083529</v>
       </c>
       <c r="Q14">
-        <v>1.461627243944376</v>
+        <v>1.842343998724445</v>
       </c>
       <c r="R14">
-        <v>1.461627243944376</v>
+        <v>16.58109598852</v>
       </c>
       <c r="S14">
-        <v>0.009839746367821001</v>
+        <v>0.007459709702327067</v>
       </c>
       <c r="T14">
-        <v>0.009839746367821001</v>
+        <v>0.007459709702327067</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.819256185244795</v>
+        <v>0.9584326666666668</v>
       </c>
       <c r="H15">
-        <v>0.819256185244795</v>
+        <v>2.875298</v>
       </c>
       <c r="I15">
-        <v>0.2415289499936274</v>
+        <v>0.1741830314604954</v>
       </c>
       <c r="J15">
-        <v>0.2415289499936274</v>
+        <v>0.1741830314604954</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.5818257052274</v>
+        <v>21.84955866666667</v>
       </c>
       <c r="N15">
-        <v>21.5818257052274</v>
+        <v>65.548676</v>
       </c>
       <c r="O15">
-        <v>0.4928173522487338</v>
+        <v>0.4867989525538483</v>
       </c>
       <c r="P15">
-        <v>0.4928173522487338</v>
+        <v>0.4867989525538483</v>
       </c>
       <c r="Q15">
-        <v>17.68104419788266</v>
+        <v>20.94133077838312</v>
       </c>
       <c r="R15">
-        <v>17.68104419788266</v>
+        <v>188.471977005448</v>
       </c>
       <c r="S15">
-        <v>0.1190296576272763</v>
+        <v>0.08479211726762319</v>
       </c>
       <c r="T15">
-        <v>0.1190296576272763</v>
+        <v>0.08479211726762319</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.819256185244795</v>
+        <v>0.9584326666666668</v>
       </c>
       <c r="H16">
-        <v>0.819256185244795</v>
+        <v>2.875298</v>
       </c>
       <c r="I16">
-        <v>0.2415289499936274</v>
+        <v>0.1741830314604954</v>
       </c>
       <c r="J16">
-        <v>0.2415289499936274</v>
+        <v>0.1741830314604954</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.0980493489764014</v>
+        <v>0.102188</v>
       </c>
       <c r="N16">
-        <v>0.0980493489764014</v>
+        <v>0.306564</v>
       </c>
       <c r="O16">
-        <v>0.002238940357143112</v>
+        <v>0.002276705544605019</v>
       </c>
       <c r="P16">
-        <v>0.002238940357143112</v>
+        <v>0.002276705544605019</v>
       </c>
       <c r="Q16">
-        <v>0.08032753560814226</v>
+        <v>0.09794031734133335</v>
       </c>
       <c r="R16">
-        <v>0.08032753560814226</v>
+        <v>0.8814628560720001</v>
       </c>
       <c r="S16">
-        <v>0.000540768913559133</v>
+        <v>0.0003965634735022204</v>
       </c>
       <c r="T16">
-        <v>0.000540768913559133</v>
+        <v>0.0003965634735022204</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.819256185244795</v>
+        <v>0.9584326666666668</v>
       </c>
       <c r="H17">
-        <v>0.819256185244795</v>
+        <v>2.875298</v>
       </c>
       <c r="I17">
-        <v>0.2415289499936274</v>
+        <v>0.1741830314604954</v>
       </c>
       <c r="J17">
-        <v>0.2415289499936274</v>
+        <v>0.1741830314604954</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.3287815286179</v>
+        <v>21.01015966666667</v>
       </c>
       <c r="N17">
-        <v>20.3287815286179</v>
+        <v>63.030479</v>
       </c>
       <c r="O17">
-        <v>0.4642042996830366</v>
+        <v>0.4680974968307114</v>
       </c>
       <c r="P17">
-        <v>0.4642042996830366</v>
+        <v>0.4680974968307114</v>
       </c>
       <c r="Q17">
-        <v>16.65448000581035</v>
+        <v>20.13682335641578</v>
       </c>
       <c r="R17">
-        <v>16.65448000581035</v>
+        <v>181.231410207742</v>
       </c>
       <c r="S17">
-        <v>0.1121187770849709</v>
+        <v>0.08153464101704297</v>
       </c>
       <c r="T17">
-        <v>0.1121187770849709</v>
+        <v>0.08153464101704297</v>
       </c>
     </row>
   </sheetData>
